--- a/biology/Zoologie/Ardeadoris_egretta/Ardeadoris_egretta.xlsx
+++ b/biology/Zoologie/Ardeadoris_egretta/Ardeadoris_egretta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ardeadoris egretta est une espèce de mollusques nudibranches de la famille des Chromodorididae et du genre Ardeadoris. Elle est l'espèce type du genre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardeadoris egretta est une espèce de mollusques nudibranches de la famille des Chromodorididae et du genre Ardeadoris. Elle est l'espèce type du genre.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le bassin Indo-Pacifique[2]. Elle est notamment présente en Australie[3],[2], en Indonésie[4], aux Philippines[5], en Papouasie Nouvelle Guinée[5], à Taïwan[6], en Inde[7], aux Émirats arabes unis[8] et en Iran[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le bassin Indo-Pacifique. Elle est notamment présente en Australie en Indonésie, aux Philippines, en Papouasie Nouvelle Guinée, à Taïwan, en Inde, aux Émirats arabes unis et en Iran.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ardeadoris egretta est blanche avec une bordure jaune[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardeadoris egretta est blanche avec une bordure jaune.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Typiquement, les mollusques de la famille des Chromodorididae sont très colorés et contiennent des métabolites terpéniques qui peuvent être impliqués dans leur défense chimique[2]. Le diterpène 7α-hydroxy-dendrillol-3 a été retrouvé chez Ardeadoris egretta[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Typiquement, les mollusques de la famille des Chromodorididae sont très colorés et contiennent des métabolites terpéniques qui peuvent être impliqués dans leur défense chimique. Le diterpène 7α-hydroxy-dendrillol-3 a été retrouvé chez Ardeadoris egretta.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rudman, W. B. 1984. The Chromodorididae (Opisthobranchia: Mollusca) of the Indo-West Pacific: a review of the genera. Zoological Journal of the Linnean Society 81: 115-273.</t>
         </is>
@@ -634,9 +654,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée et décrite par le zoologiste William B. Rudman en 1984[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée et décrite par le zoologiste William B. Rudman en 1984.
 </t>
         </is>
       </c>
